--- a/documents/BoM.xlsx
+++ b/documents/BoM.xlsx
@@ -1,98 +1,805 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kient\Documents\ECE364D\sleep-wearable\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidan\sleep-wearable\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{169A4104-CE8A-478C-AD92-24A53C32EAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F71DF5-9252-4617-A502-8BA8CE2E43FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{86FE0518-CFC4-4650-AC27-A3231A452E66}"/>
+    <workbookView xWindow="19590" yWindow="-833" windowWidth="16200" windowHeight="9308" xr2:uid="{8E387801-223C-4F5F-AF87-1E267FE988A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wearable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>Type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="260">
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>mouser#</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Datasheet URL</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer </t>
-  </si>
-  <si>
-    <t>Mfg. P/N</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
-    <t>P/N</t>
-  </si>
-  <si>
-    <t>Unit cost</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>OpenBCI EEG Headband Kit</t>
-  </si>
-  <si>
-    <t>nPM1300 PMIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADS1299IPAG 24 bit ADC</t>
-  </si>
-  <si>
-    <t>nRF54L15 Development Kit</t>
-  </si>
-  <si>
-    <t>453-00001C BLE Module</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Ezurio/453-00001C?qs=sGAEpiMZZMu3sxpa5v1qrhLM1WiCdCurp5jQyktnGTE%3D</t>
-  </si>
-  <si>
-    <t>https://shop.openbci.com/products/openbci-eeg-headband-kit</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/4754</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Nordic-Semiconductor/nPM1300-CAAA-R?qs=3pZoU/6IRTgj/Pou8dbbcA%3D%3D&amp;utm_source=OEMSecrets&amp;utm_medium=aggregator&amp;utm_campaign=nPM1300-CAAA-R&amp;utm_term=nPM1300&amp;utm_content=Nordic%20Semiconductor</t>
+    <t>Quoted Part Number</t>
+  </si>
+  <si>
+    <t>Order Quantity</t>
+  </si>
+  <si>
+    <t>Order Price</t>
+  </si>
+  <si>
+    <t>Min\Mult Order Qty</t>
+  </si>
+  <si>
+    <t>Estimated Tariff Price</t>
+  </si>
+  <si>
+    <t>Estimated Tariff Ext.</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>3.7V</t>
+  </si>
+  <si>
+    <t>Connector_JST:JST_PH_S2B-PH-K_1x02_P2.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>306-S2BPHKSLFSNPP</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/1070/1/ePH.pdf</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings Headers &amp; Wire Housings PH HEADER (SIDE)</t>
+  </si>
+  <si>
+    <t>1\1</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>4.7nF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>81-GRM1555C1H472JE1D</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/76/2/GRM1555C1H472JE01_01A.pdf</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 4700 pF 50 VDC 5% 0402 C0G (NP0)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>1.5nF</t>
+  </si>
+  <si>
+    <t>77-VJ0402A1R5CXACBC</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/doc?28548</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 1.5pF 50volts C0G +/-0.25pF</t>
+  </si>
+  <si>
+    <t>C4,C6,C10,C12,C13,C15,C21,C33</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>80-C1812S105K1RAUTO</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/508/1/C1812S105K1RACAUTO.pdf</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 100V 1uF 10% X7R 1812 -55 / +125C AEC-Q200</t>
+  </si>
+  <si>
+    <t>C5,C8,C14,C26</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>81-GXT155R71E104KE1D</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GXT155R71E104KE01-01A.pdf</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 25VDC 0.1uF 10% X7R AEC-Q200</t>
+  </si>
+  <si>
+    <t>C7,C35,C40,C45,C46</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>81-GRM155C80G106ME8D</t>
+  </si>
+  <si>
+    <t>https://pim.murata.com/asset/pim4/ceramicCapacitorSMD/GRM155C80G106ME18-01A-EN_PDF_CERAMICCAPACITORSMD</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 4VDC 10uF 20% X6S</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>.1uF</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>PCM_Capacitor_SMD_AKL:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>581-KGM31HR50J107MU</t>
+  </si>
+  <si>
+    <t>KYOCERA AVX</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/cx5r-KGM.pdf</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 6.3V 100uF X5R 1206 20%</t>
+  </si>
+  <si>
+    <t>C16,C17</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>581-KAM05ACG1H220FH</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/AutoMLCCKAM.pdf</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 50V 22pF C0G 0402 1% AEC-Q200</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>3.9pF</t>
+  </si>
+  <si>
+    <t>77-VJ0402D3R9BXCAJ</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/doc?45258</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 3.9pF 200V C0G +/-.01pF HIFREQ</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>81-GRM155Z71A225KE1J</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/76/1/GRM155Z71A225KE01-01A.pdf</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 2.2 uF 10 VDC 10% 0402 X7R</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>3.3pF</t>
+  </si>
+  <si>
+    <t>77-VJ0402D3R3BXAAJHT</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/doc?45239</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 0402 3.3pF 50V C0G .10pF HI FREQ</t>
+  </si>
+  <si>
+    <t>C42,C43,C44,C48,C49</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>81-GRM15C61E475ME15J</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/76/2/GRM155C61E475ME15_01A.pdf</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Multilayer Ceramic Capacitors MLCC - SMD/SMT 4.7 uF 25 VDC 20% 0402 X5S</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>645-599-1A10-147F,720-Q65111A7377</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>MBR0530</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
+    <t>863-MBR0530T1G</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/101/1/043519E46271BA0592FB8B73F2596D6EB2077DBBAC974E694A9C922FE96E8957.pdf</t>
+  </si>
+  <si>
+    <t>Schottky Diodes &amp; Rectifiers Schottky Diodes &amp; Rectifiers 0.5A 30V</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>TPD4E05U06DQAR</t>
+  </si>
+  <si>
+    <t>PCM_Package_SON_AKL:USON-10_2.5x1.0mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>595-TPD4E05U06DQAR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/gpn/tpd6e05u06</t>
+  </si>
+  <si>
+    <t>ESD Protection Diodes / TVS Diodes ESD Protection Diodes / TVS Diodes 4Chnl U-Lo Capacitnc IEC ESD Prot Diodes</t>
+  </si>
+  <si>
+    <t>E1,H1,H2,H3,H4</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Connector_JST:JST_PH_S5B-PH-K_1x05_P2.00mm_Horizontal,ECE445L:MountingHole_4_40</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Conn_02x05_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_1.27mm:PinHeader_2x05_P1.27mm_Vertical_SMD</t>
+  </si>
+  <si>
+    <t>485-4048</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Adafruit Accessories Adafruit Accessories Mini SWD 0.05 Pitch Connector - 10 Pin SMT Box Header</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>USB-C Connector</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x08_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0402_1005Metric_Pad0.77x0.64mm_HandSolder</t>
+  </si>
+  <si>
+    <t>710-74404020033</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/74404020033.pdf</t>
+  </si>
+  <si>
+    <t>Power Inductors - SMD Power Inductors - SMD WE-LQS 3.3uH 870mA DCR=279mOhms AEC-Q200</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>6.8uH</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R7,R8,R9,R10,R11,R13,R18</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>652-CR0402FX1002GPF,71-TNPW040210K9BEED</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>594-MCS0402MD1004BE1</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/doc?28952</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Thin Film Resistors - SMD MCS 0402-25 0.1% AT E1 1M0</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>279-CRG0402J1K0</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=1309350_PASSIVE_COMPONENT&amp;DocType=Catalog+Section&amp;DocLang=English&amp;PartCntxt=1-1622826-8&amp;DocFormat=pdf</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD Thick Film Resistors - SMD CRG0402 5% 1K0</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>270-CRG0402J330R</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>652-CR0402-JW-821GLF</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/40/1/cr.pdf</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD Thick Film Resistors - SMD 820OHM 1/16WATT 5%</t>
+  </si>
+  <si>
+    <t>R16,R19,R20</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>652-CR0402FX1002GPF</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD Thick Film Resistors - SMD Res 0402 10k 1% 63mW TC100 low lead</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>250k</t>
+  </si>
+  <si>
+    <t>708-RNCF0805BTE250K</t>
+  </si>
+  <si>
+    <t>SEI Stackpole</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/1099/1/SEI-RNCF.pdf</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Thin Film Resistors - SMD 250Kohms 0805 25ppm 0.001 Precision AEC-Q200</t>
+  </si>
+  <si>
+    <t>R21,R23</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>603-RP0805BRD07200KL</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/508/1/PYU_RP_51_ROHS_L.pdf</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Thin Film Resistors - SMD 1/8 Wa 200K Ohm 0.1% 0805 AEC-Q200</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>708-RNAN0805BKE499R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/Catalog/SEI-rnan.PDF</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Thin Film Resistors - SMD 499Ohms 0805 25ppm Tol 0.1% High Power Alum Nitride</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>698k</t>
+  </si>
+  <si>
+    <t>71-TNPW1206698KBEEA</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/doc?28758</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Thin Film Resistors - SMD 698Kohms .1% 25ppm</t>
+  </si>
+  <si>
+    <t>R25,R27</t>
+  </si>
+  <si>
+    <t>49.9K</t>
+  </si>
+  <si>
+    <t>594-MCA12060D4992BP1</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/doc?28700</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Thin Film Resistors - SMD 0.1W 49.9Kohm 0.1% 1206 25ppm Auto</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>453K</t>
+  </si>
+  <si>
+    <t>279-RN73C1J453KBTD</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/2640/1/ENG_DS_1773270_P1.pdf</t>
+  </si>
+  <si>
+    <t>Thin Film Resistors - SMD Thin Film Resistors - SMD RN 0603 453K 0.1% 10PPM 5K RL</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW_Toggle</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_1.27mm:PinHeader_1x02_P1.27mm_Vertical</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>AVSS</t>
+  </si>
+  <si>
+    <t>TestPoint:TestPoint_Bridge_Pitch2.0mm_Drill0.7mm</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>AVDD</t>
+  </si>
+  <si>
+    <t>TP3,TP4,TP5,TP6,TP7,TP8,TP9,TP10,TP11,TP12,TP14,TP15,TP16</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TestPoint:TestPoint_THTPad_D1.0mm_Drill0.5mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ADS1299IPAG</t>
+  </si>
+  <si>
+    <t>ADS1299:PAG64_TEX</t>
+  </si>
+  <si>
+    <t>595-ADS1299IPAG</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>TPD1E05U06DYA</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-523</t>
+  </si>
+  <si>
+    <t>595-TPD1E05U06DYAR</t>
+  </si>
+  <si>
+    <t>ESD Protection Diodes / TVS Diodes ESD Protection Diodes / TVS Diodes 0.5-pF 5.5-V &amp;plus m n;12-kV ESD protect</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>BNO086</t>
+  </si>
+  <si>
+    <t>BNO080:IC_BNO080</t>
+  </si>
+  <si>
+    <t>526-BNO086</t>
+  </si>
+  <si>
+    <t>CEVA</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/5991/1/BNO080_085-Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>IMUs - Inertial Measurement Units IMUs - Inertial Measurement Units 9-axis IMU</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>NPM1304-QEAA-R7</t>
+  </si>
+  <si>
+    <t>Unknown:QFN-32-1EP_5x5mm_P0.5mm_EP3.6x3.6mm_ThermalVias_D3x3.00mm</t>
+  </si>
+  <si>
+    <t>949-NPM1304-QEAA-R7</t>
+  </si>
+  <si>
+    <t>Nordic Semiconductor</t>
+  </si>
+  <si>
+    <t>Power Management Specialized - PMIC Power Management Specialized - PMIC PMIC with battery charger 4-100mA, fuel gauge, 2x Buck, 2x LDO/LS, 5x GPIO, 3x LED drivers, TWI &amp; system features</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>LT3042xMSE</t>
+  </si>
+  <si>
+    <t>Package_SO:MSOP-10-1EP_3x3mm_P0.5mm_EP1.68x1.88mm</t>
+  </si>
+  <si>
+    <t>LT3042EMSE#TRPBF</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc.</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/1014/1/lt3042.pdf</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulators LDO Voltage Regulators 20V, 200mA, Ultralow N, Ultrahigh PSRR R</t>
+  </si>
+  <si>
+    <t>584-LT3042EMSE#TRPBF</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>TPS61040DBV</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>595-TPS61040DBVR</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/gpn/tps61041</t>
+  </si>
+  <si>
+    <t>Switching Voltage Regulators Switching Voltage Regulators 28-V 400-mA Switch B oost Converter</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>BL54L15-453-000xxx</t>
+  </si>
+  <si>
+    <t>PCM_nordic-lib-kicad-nrf54-modules:BL54Lxx-LGA-39_14x10mm</t>
+  </si>
+  <si>
+    <t>239-453-00001C</t>
+  </si>
+  <si>
+    <t>Ezurio</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/catalog/specsheets/EZURIO_12-09-2024_453-000-brief.pdf</t>
+  </si>
+  <si>
+    <t>Multiprotocol Modules Multiprotocol Modules Bluetooth Module, BL54L15, Bluetooth LE, Trace ANT, Cut Tape (Nordic nRF54L15)</t>
+  </si>
+  <si>
+    <t>Y1,Y2</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_2012-2Pin_2.0x1.2mm,Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
+  </si>
+  <si>
+    <t>ABS06-32.768KHZ-7-T</t>
+  </si>
+  <si>
+    <t>ABRACON</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/184/1/ABS06.pdf</t>
+  </si>
+  <si>
+    <t>Crystals Crystals 32.768 KHZ 7PF SMD</t>
+  </si>
+  <si>
+    <t>815-ABS0632.768KHZ7T</t>
+  </si>
+  <si>
+    <t>645-599-1A10-147F</t>
+  </si>
+  <si>
+    <t>Dialight</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/350/1/C18789.pdf</t>
+  </si>
+  <si>
+    <t>Single Color LEDs Single Color LEDs SMD 0402 0.35mm heightt Red</t>
+  </si>
+  <si>
+    <t>720-Q65111A7377</t>
+  </si>
+  <si>
+    <t>ams OSRAM</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/3/5912/1/LT_QH9G_EN.pdf</t>
+  </si>
+  <si>
+    <t>Single Color LEDs Single Color LEDs T GRN SMD LED CHIP LED 0402</t>
+  </si>
+  <si>
+    <t>485-5804</t>
+  </si>
+  <si>
+    <t>Ribbon Cables / IDC Cables Ribbon Cables / IDC Cables 10-pin 2x5 Socket-Socket 1.27mm IDC (SWD) Cable - 300mm long</t>
+  </si>
+  <si>
+    <t>392-108464</t>
+  </si>
+  <si>
+    <t>Soldered</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/catalog/specsheets/Soldered_108464 kapton tape 20mm width 10m.pdf</t>
+  </si>
+  <si>
+    <t>Adhesive Tapes Adhesive Tapes kapton, tape, 20mm, 10m</t>
+  </si>
+  <si>
+    <t>595-ADS1299-4PAGR</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/gpn/ads1299-4</t>
+  </si>
+  <si>
+    <t>Analog to Digital Converters - ADC Analog to Digital Converters - ADC Low-Noise 4-Channel 24-Bit Analog-to-D A A 595-ADS1299-4PAG</t>
   </si>
 </sst>
 </file>
@@ -102,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,23 +818,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,19 +1134,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,21 +1663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A3371D-C00C-4FA4-A113-C1C53A05FC6B}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB4FCCF-8788-4C41-8DB3-AAD5ABBF3783}">
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,89 +1703,1794 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>349.99</v>
-      </c>
-      <c r="J3" s="1">
-        <v>349.99</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="I4" s="1">
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27">
+        <v>820</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31">
+        <v>499</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>199</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
         <v>1.53</v>
       </c>
-      <c r="J4" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1">
-        <v>89.48</v>
-      </c>
-      <c r="J5" s="1">
-        <v>89.48</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" t="s">
+        <v>220</v>
+      </c>
+      <c r="I43" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>9.24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" t="s">
+        <v>232</v>
+      </c>
+      <c r="G45" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" t="s">
+        <v>234</v>
+      </c>
+      <c r="I45" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
         <v>4.25</v>
       </c>
-      <c r="J6" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" t="s">
+        <v>242</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" t="s">
+        <v>245</v>
+      </c>
+      <c r="H47" t="s">
+        <v>246</v>
+      </c>
+      <c r="I47" t="s">
+        <v>243</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" t="s">
+        <v>250</v>
+      </c>
+      <c r="I48" t="s">
+        <v>247</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>251</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>252</v>
+      </c>
+      <c r="I49" t="s">
+        <v>251</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" t="s">
+        <v>256</v>
+      </c>
+      <c r="I50" t="s">
+        <v>253</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>258</v>
+      </c>
+      <c r="H51" t="s">
+        <v>259</v>
+      </c>
+      <c r="I51" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>43.65</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1" xr:uid="{3C3B989D-AB00-4F3A-95AC-BB600C6F2D1C}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{98392EEC-AC59-497C-8BB3-807F50B2BBC2}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{8B87DE4F-B7B4-4A1F-BA45-C8B5817FD88F}"/>
-    <hyperlink ref="K4" r:id="rId4" xr:uid="{DE329EBD-4830-44B6-A3E5-E07A107E12D9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>